--- a/storage/pony_1.xlsx
+++ b/storage/pony_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a123/Sites/Commercial/xmail/storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F3FFED-859A-0746-8C64-793FC8BB7454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D85953-8714-D647-8FD5-C7F09A5BCF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12580" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41180" yWindow="-2400" windowWidth="28060" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Стандарт Д-Д тариф" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Зоны стр8" sheetId="39" r:id="rId9"/>
     <sheet name="Зоны стр9" sheetId="40" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2692,12 +2692,6 @@
     <t xml:space="preserve"> 80;249</t>
   </si>
   <si>
-    <t xml:space="preserve"> 250-499</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 500-999</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1000;0</t>
   </si>
   <si>
@@ -2726,6 +2720,12 @@
   </si>
   <si>
     <t>Южно-Сахалинск</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 250;499</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 500;999</t>
   </si>
 </sst>
 </file>
@@ -2924,6 +2924,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2938,15 +2947,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3257,8 +3257,8 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3280,77 +3280,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="A2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="25.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>264</v>
       </c>
       <c r="C3" s="1">
         <v>0.5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="20" t="s">
         <v>265</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>266</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="I3" s="25">
+      <c r="H3" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="20">
         <v>1</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>268</v>
+      <c r="J3" s="20" t="s">
+        <v>278</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="25" t="s">
-        <v>269</v>
+      <c r="L3" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -3779,7 +3779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0940D17E-1CE0-4AB3-A9D5-10CC83A7919C}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3808,7 +3808,7 @@
         <v>259</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>257</v>
@@ -3880,7 +3880,7 @@
         <v>234</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC1" s="17" t="s">
         <v>232</v>
@@ -3898,7 +3898,7 @@
         <v>228</v>
       </c>
       <c r="AH1" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AI1" s="17" t="s">
         <v>262</v>
@@ -7868,82 +7868,82 @@
       </c>
     </row>
     <row r="38" spans="1:37" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="23"/>
-      <c r="AH38" s="23"/>
-      <c r="AI38" s="23"/>
-      <c r="AJ38" s="23"/>
-      <c r="AK38" s="23"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
     </row>
     <row r="39" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="27"/>
+      <c r="AI39" s="27"/>
+      <c r="AJ39" s="27"/>
+      <c r="AK39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8043,8 +8043,8 @@
       <c r="O1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="27" t="s">
-        <v>271</v>
+      <c r="P1" s="22" t="s">
+        <v>269</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>24</v>
@@ -8106,8 +8106,8 @@
       <c r="AJ1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="26" t="s">
-        <v>270</v>
+      <c r="AK1" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="AL1" s="7" t="s">
         <v>42</v>
@@ -12601,8 +12601,8 @@
       <c r="M1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>272</v>
+      <c r="N1" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>66</v>
@@ -12619,8 +12619,8 @@
       <c r="S1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="27" t="s">
-        <v>273</v>
+      <c r="T1" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>61</v>
@@ -12640,8 +12640,8 @@
       <c r="Z1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="27" t="s">
-        <v>274</v>
+      <c r="AA1" s="22" t="s">
+        <v>272</v>
       </c>
       <c r="AB1" s="9" t="s">
         <v>55</v>
@@ -12664,8 +12664,8 @@
       <c r="AH1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="26" t="s">
-        <v>275</v>
+      <c r="AI1" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="AJ1" s="7" t="s">
         <v>48</v>
@@ -17137,8 +17137,8 @@
       <c r="C1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>276</v>
+      <c r="D1" s="21" t="s">
+        <v>274</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>108</v>
@@ -17209,8 +17209,8 @@
       <c r="AA1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="26" t="s">
-        <v>277</v>
+      <c r="AB1" s="21" t="s">
+        <v>275</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>85</v>
@@ -17227,8 +17227,8 @@
       <c r="AG1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AH1" s="26" t="s">
-        <v>278</v>
+      <c r="AH1" s="21" t="s">
+        <v>276</v>
       </c>
       <c r="AI1" s="7" t="s">
         <v>80</v>
@@ -21400,8 +21400,8 @@
       <c r="O1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="27" t="s">
-        <v>271</v>
+      <c r="P1" s="22" t="s">
+        <v>269</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>24</v>
@@ -21463,8 +21463,8 @@
       <c r="AJ1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="26" t="s">
-        <v>270</v>
+      <c r="AK1" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="AL1" s="7" t="s">
         <v>42</v>
@@ -26084,8 +26084,8 @@
       <c r="M1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>272</v>
+      <c r="N1" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>66</v>
@@ -26102,8 +26102,8 @@
       <c r="S1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="27" t="s">
-        <v>273</v>
+      <c r="T1" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>61</v>
@@ -26123,8 +26123,8 @@
       <c r="Z1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="27" t="s">
-        <v>274</v>
+      <c r="AA1" s="22" t="s">
+        <v>272</v>
       </c>
       <c r="AB1" s="9" t="s">
         <v>55</v>
@@ -26147,8 +26147,8 @@
       <c r="AH1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="26" t="s">
-        <v>275</v>
+      <c r="AI1" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="AJ1" s="7" t="s">
         <v>48</v>
@@ -30745,8 +30745,8 @@
       <c r="C1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>276</v>
+      <c r="D1" s="21" t="s">
+        <v>274</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>108</v>
@@ -30817,8 +30817,8 @@
       <c r="AA1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="26" t="s">
-        <v>277</v>
+      <c r="AB1" s="21" t="s">
+        <v>275</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>85</v>
@@ -30835,8 +30835,8 @@
       <c r="AG1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AH1" s="26" t="s">
-        <v>278</v>
+      <c r="AH1" s="21" t="s">
+        <v>276</v>
       </c>
       <c r="AI1" s="7" t="s">
         <v>80</v>
@@ -35105,7 +35105,7 @@
         <v>177</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>176</v>
@@ -35168,7 +35168,7 @@
         <v>157</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AL1" s="12" t="s">
         <v>156</v>
@@ -39530,7 +39530,7 @@
         <v>213</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>212</v>
@@ -39548,7 +39548,7 @@
         <v>208</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>207</v>
@@ -39569,7 +39569,7 @@
         <v>202</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AB1" s="14" t="s">
         <v>201</v>
@@ -39593,7 +39593,7 @@
         <v>195</v>
       </c>
       <c r="AI1" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AJ1" s="12" t="s">
         <v>194</v>
